--- a/python/excel/test01.xlsx
+++ b/python/excel/test01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16960" tabRatio="398"/>
+    <workbookView windowHeight="16960" tabRatio="825" firstSheet="39" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="SG" sheetId="8" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="VN" sheetId="7" r:id="rId6"/>
     <sheet name="NP" sheetId="9" r:id="rId7"/>
     <sheet name="TH" sheetId="11" r:id="rId8"/>
-    <sheet name="MM" sheetId="12" r:id="rId9"/>
-    <sheet name="KH" sheetId="13" r:id="rId10"/>
+    <sheet name="KH" sheetId="13" r:id="rId9"/>
+    <sheet name="MM" sheetId="12" r:id="rId10"/>
     <sheet name="LA" sheetId="14" r:id="rId11"/>
     <sheet name="BD" sheetId="15" r:id="rId12"/>
     <sheet name="AU" sheetId="16" r:id="rId13"/>
@@ -2291,6 +2291,189 @@
 29.8</t>
   </si>
   <si>
+    <t>VIETTELCAMBODIA-AS-AP</t>
+  </si>
+  <si>
+    <t>36.37.128.55
+103.253.180.60
+111.118.135.242</t>
+  </si>
+  <si>
+    <t>25.4
+36.6
+34.5</t>
+  </si>
+  <si>
+    <t>via AS38623（柬埔寨POP）</t>
+  </si>
+  <si>
+    <t>23.7
+23.1
+26.1</t>
+  </si>
+  <si>
+    <t>SMART-AXIATA-KH</t>
+  </si>
+  <si>
+    <t>27.109.112.106
+103.145.136.235
+117.20.117.245</t>
+  </si>
+  <si>
+    <t>41.7
+41.6
+38.5</t>
+  </si>
+  <si>
+    <t>via AS45498（柬埔寨POP）</t>
+  </si>
+  <si>
+    <t>20.0
+20.0
+20.5</t>
+  </si>
+  <si>
+    <t>CamGSM-CELLCARD-AS-AP</t>
+  </si>
+  <si>
+    <t>103.193.204.68
+203.144.64.77
+203.144.66.127</t>
+  </si>
+  <si>
+    <t>22.2
+26.5
+26.3</t>
+  </si>
+  <si>
+    <t>via AS17976（柬埔寨POP）</t>
+  </si>
+  <si>
+    <t>20.2
+20.5
+20.2</t>
+  </si>
+  <si>
+    <t>KINGCORP-KH</t>
+  </si>
+  <si>
+    <t>150.107.5.141
+160.202.35.109
+103.141.164.41</t>
+  </si>
+  <si>
+    <t>via FPT</t>
+  </si>
+  <si>
+    <t>34.9
+35.4
+34.7</t>
+  </si>
+  <si>
+    <t>via CNX（柬埔寨POP）,via AS 18403</t>
+  </si>
+  <si>
+    <t>20.4
+20.4
+25.1</t>
+  </si>
+  <si>
+    <t>EZECOM-AS-AP</t>
+  </si>
+  <si>
+    <t>27.96.84.210
+43.245.32.125
+103.9.188.80</t>
+  </si>
+  <si>
+    <t>26.6
+30.7
+30.2</t>
+  </si>
+  <si>
+    <t>via CNX（柬埔寨POP）</t>
+  </si>
+  <si>
+    <t>23.7
+20.1
+28.0</t>
+  </si>
+  <si>
+    <t>SINET-KH</t>
+  </si>
+  <si>
+    <t>43.245.202.100
+96.9.64.157
+136.228.131.66</t>
+  </si>
+  <si>
+    <t>29.1
+27.4
+30.4</t>
+  </si>
+  <si>
+    <t>21.5
+20.2
+20.4</t>
+  </si>
+  <si>
+    <t>ONLINE-AS</t>
+  </si>
+  <si>
+    <t>43.230.193.11
+110.235.243.197
+124.248.171.213</t>
+  </si>
+  <si>
+    <t>22.8
+31.2
+26.2</t>
+  </si>
+  <si>
+    <t>via AS23673（柬埔寨POP）</t>
+  </si>
+  <si>
+    <t>20.8
+21.8
+21.4</t>
+  </si>
+  <si>
+    <t>IIT-WICAM-AS-AP</t>
+  </si>
+  <si>
+    <t>43.245.216.81
+49.156.32.94
+116.206.17.108</t>
+  </si>
+  <si>
+    <t>26.2
+21.8
+25.3</t>
+  </si>
+  <si>
+    <t>21.8
+24.7
+23.6</t>
+  </si>
+  <si>
+    <t>MEKONGNET-ADC-AS-AP</t>
+  </si>
+  <si>
+    <t>202.178.112.226
+203.176.137.91
+116.212.135.29</t>
+  </si>
+  <si>
+    <t>72.3
+39.3
+81.7</t>
+  </si>
+  <si>
+    <t>63.6
+30.2
+74.4</t>
+  </si>
+  <si>
     <t>TIMCL-AS-AP</t>
   </si>
   <si>
@@ -2487,189 +2670,6 @@
     <t>75.6
 66.8
 39.8</t>
-  </si>
-  <si>
-    <t>VIETTELCAMBODIA-AS-AP</t>
-  </si>
-  <si>
-    <t>36.37.128.55
-103.253.180.60
-111.118.135.242</t>
-  </si>
-  <si>
-    <t>25.4
-36.6
-34.5</t>
-  </si>
-  <si>
-    <t>via AS38623（柬埔寨POP）</t>
-  </si>
-  <si>
-    <t>23.7
-23.1
-26.1</t>
-  </si>
-  <si>
-    <t>SMART-AXIATA-KH</t>
-  </si>
-  <si>
-    <t>27.109.112.106
-103.145.136.235
-117.20.117.245</t>
-  </si>
-  <si>
-    <t>41.7
-41.6
-38.5</t>
-  </si>
-  <si>
-    <t>via AS45498（柬埔寨POP）</t>
-  </si>
-  <si>
-    <t>20.0
-20.0
-20.5</t>
-  </si>
-  <si>
-    <t>CamGSM-CELLCARD-AS-AP</t>
-  </si>
-  <si>
-    <t>103.193.204.68
-203.144.64.77
-203.144.66.127</t>
-  </si>
-  <si>
-    <t>22.2
-26.5
-26.3</t>
-  </si>
-  <si>
-    <t>via AS17976（柬埔寨POP）</t>
-  </si>
-  <si>
-    <t>20.2
-20.5
-20.2</t>
-  </si>
-  <si>
-    <t>KINGCORP-KH</t>
-  </si>
-  <si>
-    <t>150.107.5.141
-160.202.35.109
-103.141.164.41</t>
-  </si>
-  <si>
-    <t>via FPT</t>
-  </si>
-  <si>
-    <t>34.9
-35.4
-34.7</t>
-  </si>
-  <si>
-    <t>via CNX（柬埔寨POP）,via AS 18403</t>
-  </si>
-  <si>
-    <t>20.4
-20.4
-25.1</t>
-  </si>
-  <si>
-    <t>EZECOM-AS-AP</t>
-  </si>
-  <si>
-    <t>27.96.84.210
-43.245.32.125
-103.9.188.80</t>
-  </si>
-  <si>
-    <t>26.6
-30.7
-30.2</t>
-  </si>
-  <si>
-    <t>via CNX（柬埔寨POP）</t>
-  </si>
-  <si>
-    <t>23.7
-20.1
-28.0</t>
-  </si>
-  <si>
-    <t>SINET-KH</t>
-  </si>
-  <si>
-    <t>43.245.202.100
-96.9.64.157
-136.228.131.66</t>
-  </si>
-  <si>
-    <t>29.1
-27.4
-30.4</t>
-  </si>
-  <si>
-    <t>21.5
-20.2
-20.4</t>
-  </si>
-  <si>
-    <t>ONLINE-AS</t>
-  </si>
-  <si>
-    <t>43.230.193.11
-110.235.243.197
-124.248.171.213</t>
-  </si>
-  <si>
-    <t>22.8
-31.2
-26.2</t>
-  </si>
-  <si>
-    <t>via AS23673（柬埔寨POP）</t>
-  </si>
-  <si>
-    <t>20.8
-21.8
-21.4</t>
-  </si>
-  <si>
-    <t>IIT-WICAM-AS-AP</t>
-  </si>
-  <si>
-    <t>43.245.216.81
-49.156.32.94
-116.206.17.108</t>
-  </si>
-  <si>
-    <t>26.2
-21.8
-25.3</t>
-  </si>
-  <si>
-    <t>21.8
-24.7
-23.6</t>
-  </si>
-  <si>
-    <t>MEKONGNET-ADC-AS-AP</t>
-  </si>
-  <si>
-    <t>202.178.112.226
-203.176.137.91
-116.212.135.29</t>
-  </si>
-  <si>
-    <t>72.3
-39.3
-81.7</t>
-  </si>
-  <si>
-    <t>63.6
-30.2
-74.4</t>
   </si>
   <si>
     <t>TELECOM-LA-AS-AP</t>
@@ -8049,7 +8049,7 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
@@ -8454,24 +8454,24 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.2"/>
   <cols>
-    <col min="1" max="1" width="11.8416666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.2333333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.3833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.2333333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6166666666667" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6166666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.4583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.2333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.3833333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.2333333333333" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.6166666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6166666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.6166666666667" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -8511,306 +8511,335 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="45" spans="1:11">
+    <row r="2" ht="34" spans="1:11">
       <c r="A2" s="2">
-        <v>38623</v>
-      </c>
-      <c r="B2" s="30" t="s">
+        <v>136255</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="C2" s="10">
+        <v>57.3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>588</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="22" t="s">
         <v>590</v>
       </c>
-      <c r="C2" s="31">
-        <v>39.58</v>
-      </c>
-      <c r="D2" s="4">
-        <v>488</v>
-      </c>
-      <c r="E2" s="15" t="s">
+    </row>
+    <row r="3" ht="34" spans="1:11">
+      <c r="A3" s="2">
+        <v>9988</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="C3" s="10">
+        <v>14.17</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>592</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="16" t="s">
+      <c r="F3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>593</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="22" t="s">
         <v>594</v>
-      </c>
-    </row>
-    <row r="3" ht="45" spans="1:11">
-      <c r="A3" s="2">
-        <v>45498</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>595</v>
-      </c>
-      <c r="C3" s="33">
-        <v>28.23</v>
-      </c>
-      <c r="D3" s="4">
-        <v>17</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>596</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="16" t="s">
-        <v>598</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:11">
       <c r="A4" s="2">
-        <v>17976</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>600</v>
-      </c>
-      <c r="C4" s="31">
-        <v>10.37</v>
-      </c>
-      <c r="D4" s="4">
-        <v>32</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>601</v>
+        <v>135300</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="C4" s="10">
+        <v>5.75</v>
+      </c>
+      <c r="D4" s="2">
+        <v>12</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>596</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>488</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="16" t="s">
-        <v>603</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>604</v>
+      <c r="H4" s="22" t="s">
+        <v>597</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:11">
       <c r="A5" s="2">
-        <v>131178</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>605</v>
-      </c>
-      <c r="C5" s="33">
-        <v>9.59</v>
-      </c>
-      <c r="D5" s="4">
-        <v>138</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>606</v>
+        <v>133384</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.06</v>
+      </c>
+      <c r="D5" s="2">
+        <v>12</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>601</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>607</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>608</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>610</v>
+      <c r="G5" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="6" ht="34" spans="1:11">
       <c r="A6" s="2">
-        <v>38901</v>
-      </c>
-      <c r="B6" s="30" t="s">
+        <v>45558</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.43</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>607</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="17" t="s">
+        <v>598</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:11">
+      <c r="A7" s="2">
+        <v>134840</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2.01</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>610</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>611</v>
-      </c>
-      <c r="C6" s="31">
-        <v>2.4</v>
-      </c>
-      <c r="D6" s="4">
-        <v>152</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>612</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="7" ht="34" spans="1:11">
-      <c r="A7" s="2">
-        <v>131207</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>616</v>
-      </c>
-      <c r="C7" s="33">
-        <v>1.61</v>
-      </c>
-      <c r="D7" s="4">
-        <v>68</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>617</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>618</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="8" ht="34" spans="1:11">
+      <c r="A8" s="2">
+        <v>132148</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="8" ht="56" spans="1:11">
-      <c r="A8" s="2">
-        <v>23673</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>620</v>
-      </c>
-      <c r="C8" s="31">
-        <v>1.5</v>
-      </c>
-      <c r="D8" s="4">
-        <v>128</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>621</v>
+      <c r="C8" s="10">
+        <v>1.92</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>615</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>622</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>624</v>
+      <c r="G8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:11">
       <c r="A9" s="2">
-        <v>24492</v>
-      </c>
-      <c r="B9" s="32" t="s">
-        <v>625</v>
-      </c>
-      <c r="C9" s="33">
-        <v>1.19</v>
-      </c>
-      <c r="D9" s="4">
-        <v>107</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>626</v>
+        <v>136480</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.67</v>
+      </c>
+      <c r="D9" s="2">
+        <v>19</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>620</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>627</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>628</v>
+      <c r="G9" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>621</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:11">
       <c r="A10" s="2">
-        <v>38235</v>
-      </c>
-      <c r="B10" s="30" t="s">
+        <v>135405</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>6</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>625</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>602</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>626</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="11" ht="45" spans="1:11">
+      <c r="A11" s="2">
+        <v>134739</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.97</v>
+      </c>
+      <c r="D11" s="2">
+        <v>12</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>629</v>
       </c>
-      <c r="C10" s="31">
-        <v>1.12</v>
-      </c>
-      <c r="D10" s="4">
-        <v>92</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="F11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>630</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="H11" s="22" t="s">
         <v>631</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="K11" s="22" t="s">
         <v>632</v>
       </c>
     </row>
@@ -8828,8 +8857,8 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.4583333333333" defaultRowHeight="11.2" outlineLevelRow="4"/>
@@ -12133,7 +12162,7 @@
   <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.075" defaultRowHeight="12.8"/>
@@ -16684,7 +16713,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C21"/>
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -24332,7 +24361,7 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="A1:K17"/>
     </sheetView>
   </sheetViews>
@@ -25535,24 +25564,24 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.2"/>
   <cols>
-    <col min="1" max="1" width="14.6166666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4583333333333" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="26.3833333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.2333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3833333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.2333333333333" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.8416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.2333333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.3833333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.2333333333333" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6166666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.7666666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.15" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6166666666667" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.6166666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.6166666666667" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
@@ -25592,336 +25621,307 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="34" spans="1:11">
+    <row r="2" ht="45" spans="1:11">
       <c r="A2" s="2">
-        <v>136255</v>
-      </c>
-      <c r="B2" s="9" t="s">
+        <v>38623</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>544</v>
       </c>
-      <c r="C2" s="10">
-        <v>57.3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>80</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="C2" s="31">
+        <v>39.58</v>
+      </c>
+      <c r="D2" s="4">
+        <v>488</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>545</v>
       </c>
       <c r="F2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="22" t="s">
+      <c r="G2" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>546</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="16" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="3" ht="34" spans="1:11">
+      <c r="K2" s="15" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="3" ht="45" spans="1:11">
       <c r="A3" s="2">
-        <v>9988</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="C3" s="10">
-        <v>14.17</v>
-      </c>
-      <c r="D3" s="2">
-        <v>42</v>
-      </c>
-      <c r="E3" s="22" t="s">
+        <v>45498</v>
+      </c>
+      <c r="B3" s="32" t="s">
         <v>549</v>
       </c>
+      <c r="C3" s="33">
+        <v>28.23</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>550</v>
+      </c>
       <c r="F3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="22" t="s">
+      <c r="G3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>551</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="4" ht="34" spans="1:11">
       <c r="A4" s="2">
-        <v>135300</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C4" s="10">
-        <v>5.75</v>
-      </c>
-      <c r="D4" s="2">
-        <v>12</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>553</v>
+        <v>17976</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="31">
+        <v>10.37</v>
+      </c>
+      <c r="D4" s="4">
+        <v>32</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>555</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="H4" s="22" t="s">
-        <v>554</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="K4" s="22" t="s">
+      <c r="H4" s="15" t="s">
         <v>556</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="16" t="s">
+        <v>557</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="5" ht="34" spans="1:11">
       <c r="A5" s="2">
-        <v>133384</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3.06</v>
-      </c>
-      <c r="D5" s="2">
-        <v>12</v>
-      </c>
-      <c r="E5" s="22" t="s">
-        <v>558</v>
+        <v>131178</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" s="33">
+        <v>9.59</v>
+      </c>
+      <c r="D5" s="4">
+        <v>138</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>560</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="22" t="s">
+      <c r="G5" s="16" t="s">
         <v>561</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="6" ht="34" spans="1:11">
       <c r="A6" s="2">
-        <v>45558</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2.43</v>
-      </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>563</v>
+        <v>38901</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="31">
+        <v>2.4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>152</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>566</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>564</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="7" ht="45" spans="1:11">
+      <c r="G6" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" ht="34" spans="1:11">
       <c r="A7" s="2">
-        <v>134840</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2.01</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>567</v>
+        <v>131207</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1.61</v>
+      </c>
+      <c r="D7" s="4">
+        <v>68</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>571</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>568</v>
+      <c r="G7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>572</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="8" ht="34" spans="1:11">
+      <c r="J7" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8" ht="56" spans="1:11">
       <c r="A8" s="2">
-        <v>132148</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1.92</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>572</v>
+        <v>23673</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>574</v>
+      </c>
+      <c r="C8" s="31">
+        <v>1.5</v>
+      </c>
+      <c r="D8" s="4">
+        <v>128</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>575</v>
       </c>
       <c r="F8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="K8" s="22" t="s">
-        <v>575</v>
+      <c r="G8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="16" t="s">
+        <v>577</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="9" ht="34" spans="1:11">
       <c r="A9" s="2">
-        <v>136480</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="D9" s="2">
-        <v>19</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>577</v>
+        <v>24492</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>579</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1.19</v>
+      </c>
+      <c r="D9" s="4">
+        <v>107</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>580</v>
       </c>
       <c r="F9" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>578</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="K9" s="22" t="s">
-        <v>580</v>
+      <c r="G9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>581</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="10" ht="45" spans="1:11">
       <c r="A10" s="2">
-        <v>135405</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>581</v>
-      </c>
-      <c r="C10" s="10">
-        <v>1.23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>6</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>582</v>
+        <v>38235</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1.12</v>
+      </c>
+      <c r="D10" s="4">
+        <v>92</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>584</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="11" ht="45" spans="1:11">
-      <c r="A11" s="2">
-        <v>134739</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="G10" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="C11" s="10">
-        <v>0.97</v>
-      </c>
-      <c r="D11" s="2">
-        <v>12</v>
-      </c>
-      <c r="E11" s="22" t="s">
+      <c r="I10" s="4"/>
+      <c r="J10" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>586</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="K11" s="22" t="s">
-        <v>589</v>
       </c>
     </row>
   </sheetData>
